--- a/Project/熊静祎/测试用例/冒烟测试用例.xlsx
+++ b/Project/熊静祎/测试用例/冒烟测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Foundation preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD361845-4076-45DA-956D-2A21D7B74835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F16580C-1308-437F-97FC-8C4604361BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8448" yWindow="3456" windowWidth="17280" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="171">
   <si>
     <t>测试模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,17 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户登录
-2、鼠标移动到顶部导航栏空白部分
-3、点击“内容”
-4、点击“新闻动态”左部下拉箭头
-5、点击“熊-报道1”(原“媒体报道”)右部“更多”按钮
-6、点击“移动”
-7、选择移动到“熊-资讯2”(原“行业资讯”)
-8、点击“保存”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台进行修改后，前端“新闻动态”的“熊-资讯2”(原“行业资讯”)栏目中增加“熊-报道1”(原“媒体报道”)栏目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,6 +1141,17 @@
   </si>
   <si>
     <t>后台进行修改后，点击前端“新闻动态”下拉框的“熊-新闻3”(原“企业新闻”)不能够实现新窗口打开该页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户登录
+2、鼠标移动到顶部导航栏空白部分
+3、点击“内容”
+4、点击“新闻动态”左部下拉箭头
+5、点击“熊-添加5”右部“更多”按钮
+6、点击“移动”
+7、选择移动到“熊-资讯2”(原“行业资讯”)
+8、点击“保存”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,6 +1284,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1580,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1636,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1643,13 +1646,13 @@
         <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>115</v>
+      <c r="G2" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>
@@ -1661,7 +1664,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1669,12 +1672,12 @@
         <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1687,22 +1690,22 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1715,18 +1718,18 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1739,18 +1742,18 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1763,18 +1766,18 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1787,18 +1790,18 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1811,18 +1814,18 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1835,18 +1838,18 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1859,18 +1862,18 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1883,18 +1886,18 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1907,18 +1910,18 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
@@ -1931,18 +1934,18 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="5" t="s">
         <v>62</v>
       </c>
@@ -1955,18 +1958,18 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
@@ -1979,18 +1982,18 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2003,23 +2006,23 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2027,23 +2030,23 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -2051,23 +2054,23 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -2075,18 +2078,18 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="5" t="s">
         <v>73</v>
       </c>
@@ -2099,18 +2102,18 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
@@ -2123,18 +2126,18 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="5" t="s">
         <v>47</v>
       </c>
@@ -2147,18 +2150,18 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="5" t="s">
         <v>76</v>
       </c>
@@ -2171,23 +2174,23 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="6"/>
     </row>
@@ -2195,23 +2198,23 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J25" s="6"/>
     </row>
@@ -2219,23 +2222,23 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="I26" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -2243,110 +2246,118 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2355,20 +2366,20 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -2377,20 +2388,20 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2399,20 +2410,20 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2421,20 +2432,20 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2443,23 +2454,23 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="I36" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J36" s="6"/>
     </row>
@@ -2467,22 +2478,22 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2491,20 +2502,20 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="14"/>
+      <c r="H38" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -2513,20 +2524,20 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2535,20 +2546,20 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="G40" s="14"/>
       <c r="H40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -2557,20 +2568,20 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -2579,20 +2590,20 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -2601,20 +2612,20 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="G43" s="14"/>
       <c r="H43" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -2623,20 +2634,20 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -2645,20 +2656,20 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2667,20 +2678,20 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -2689,20 +2700,20 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2711,20 +2722,20 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="13"/>
+        <v>166</v>
+      </c>
+      <c r="G48" s="14"/>
       <c r="H48" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -2733,20 +2744,20 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2755,20 +2766,20 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -2777,20 +2788,20 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="14"/>
+      <c r="H51" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
